--- a/municipal/სასტუმროები/სტუმრები/აჭარა ა.რ/ხელვაჩაური.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/აჭარა ა.რ/ხელვაჩაური.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\აჭარა ა.რ. +\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\აჭარა ა.რ. +\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -68,7 +68,52 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ხელვაჩაურის მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ხელვაჩაურის მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -76,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +196,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,7 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -334,11 +393,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -346,42 +430,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -684,7 +740,7 @@
   <sheetData>
     <row r="1" spans="1:69" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
@@ -759,66 +815,66 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="42"/>
-      <c r="AQ2" s="42"/>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="42"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="42"/>
-      <c r="AW2" s="42"/>
-      <c r="AX2" s="42"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
+      <c r="BB2" s="52"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="52"/>
+      <c r="BE2" s="52"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="52"/>
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
       <c r="BJ2" s="5"/>
       <c r="BK2" s="5"/>
       <c r="BL2" s="5"/>
@@ -912,14 +968,14 @@
       <c r="BQ3" s="15"/>
     </row>
     <row r="4" spans="1:69" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43">
+      <c r="A4" s="55">
         <v>2010</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -985,22 +1041,22 @@
       <c r="BQ4" s="21"/>
     </row>
     <row r="5" spans="1:69" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="43">
         <v>7196</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="43">
         <v>7082</v>
       </c>
-      <c r="D5" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="47">
+      <c r="D5" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="43">
         <v>114</v>
       </c>
       <c r="G5" s="23"/>
@@ -1068,22 +1124,22 @@
       <c r="BQ5" s="25"/>
     </row>
     <row r="6" spans="1:69" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="45">
         <v>4562</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="45">
         <v>4562</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="49"/>
+      <c r="D6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="45"/>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
@@ -1149,22 +1205,22 @@
       <c r="BQ6" s="5"/>
     </row>
     <row r="7" spans="1:69" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="45">
         <v>2634</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="45">
         <v>2520</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="49">
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="45">
         <v>114</v>
       </c>
       <c r="G7" s="27"/>
@@ -1232,22 +1288,22 @@
       <c r="BQ7" s="5"/>
     </row>
     <row r="8" spans="1:69" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="45">
         <v>70</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="45">
         <v>69</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="49">
+      <c r="D8" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="45">
         <v>1</v>
       </c>
       <c r="G8" s="27"/>
@@ -1315,22 +1371,22 @@
       <c r="BQ8" s="5"/>
     </row>
     <row r="9" spans="1:69" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="45">
         <v>1487</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="45">
         <v>1484</v>
       </c>
-      <c r="D9" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="49">
+      <c r="D9" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="45">
         <v>3</v>
       </c>
       <c r="G9" s="27"/>
@@ -1398,22 +1454,22 @@
       <c r="BQ9" s="5"/>
     </row>
     <row r="10" spans="1:69" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="48">
         <v>1077</v>
       </c>
-      <c r="C10" s="52">
+      <c r="C10" s="48">
         <v>967</v>
       </c>
-      <c r="D10" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="52">
+      <c r="D10" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="48">
         <v>110</v>
       </c>
       <c r="G10" s="27"/>
@@ -1481,14 +1537,14 @@
       <c r="BQ10" s="5"/>
     </row>
     <row r="11" spans="1:69" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54">
+      <c r="A11" s="51">
         <v>2011</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
@@ -1554,22 +1610,22 @@
       <c r="BQ11" s="21"/>
     </row>
     <row r="12" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="47">
+      <c r="B12" s="43">
         <v>10964</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="43">
         <v>9839</v>
       </c>
-      <c r="D12" s="47">
+      <c r="D12" s="43">
         <v>1125</v>
       </c>
-      <c r="E12" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="47" t="s">
+      <c r="E12" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="29"/>
@@ -1589,22 +1645,22 @@
       <c r="U12" s="29"/>
     </row>
     <row r="13" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="49">
+      <c r="B13" s="45">
         <v>6912</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="45">
         <v>6294</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="45">
         <v>618</v>
       </c>
-      <c r="E13" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="55" t="s">
+      <c r="E13" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="29"/>
@@ -1624,22 +1680,22 @@
       <c r="U13" s="29"/>
     </row>
     <row r="14" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="49">
+      <c r="B14" s="45">
         <v>4052</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="45">
         <v>3545</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="45">
         <v>507</v>
       </c>
-      <c r="E14" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="55" t="s">
+      <c r="E14" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="29"/>
@@ -1659,22 +1715,22 @@
       <c r="U14" s="29"/>
     </row>
     <row r="15" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="45">
         <v>110</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="45">
         <v>110</v>
       </c>
-      <c r="D15" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="55" t="s">
+      <c r="D15" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="29"/>
@@ -1694,22 +1750,22 @@
       <c r="U15" s="29"/>
     </row>
     <row r="16" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="45">
         <v>1574</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="45">
         <v>1574</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="49" t="s">
+      <c r="D16" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="29"/>
@@ -1729,22 +1785,22 @@
       <c r="U16" s="29"/>
     </row>
     <row r="17" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="52">
+      <c r="B17" s="48">
         <v>2368</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="48">
         <v>1861</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="48">
         <v>507</v>
       </c>
-      <c r="E17" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="52" t="s">
+      <c r="E17" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="29"/>
@@ -1764,14 +1820,14 @@
       <c r="U17" s="29"/>
     </row>
     <row r="18" spans="1:69" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54">
+      <c r="A18" s="51">
         <v>2012</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
@@ -1837,22 +1893,22 @@
       <c r="BQ18" s="34"/>
     </row>
     <row r="19" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="43">
         <v>21842</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="43">
         <v>21249</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="43">
         <v>558</v>
       </c>
-      <c r="E19" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="57">
+      <c r="E19" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="43">
         <v>35</v>
       </c>
       <c r="G19" s="29"/>
@@ -1872,22 +1928,22 @@
       <c r="U19" s="29"/>
     </row>
     <row r="20" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="45">
         <v>11091</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="45">
         <v>10753</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="45">
         <v>303</v>
       </c>
-      <c r="E20" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="49">
+      <c r="E20" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="45">
         <v>35</v>
       </c>
       <c r="G20" s="29"/>
@@ -1907,25 +1963,25 @@
       <c r="U20" s="29"/>
     </row>
     <row r="21" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="45">
         <v>10751</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="45">
         <v>10496</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="45">
         <v>255</v>
       </c>
-      <c r="E21" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="29"/>
+      <c r="E21" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="43"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
@@ -1942,25 +1998,25 @@
       <c r="U21" s="29"/>
     </row>
     <row r="22" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="45">
         <v>66</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="45">
         <v>66</v>
       </c>
-      <c r="D22" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="29"/>
+      <c r="D22" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="43"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
@@ -1977,25 +2033,25 @@
       <c r="U22" s="29"/>
     </row>
     <row r="23" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="45">
         <v>4783</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="45">
         <v>4763</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="45">
         <v>20</v>
       </c>
-      <c r="E23" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="29"/>
+      <c r="E23" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="43"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
@@ -2012,25 +2068,25 @@
       <c r="U23" s="29"/>
     </row>
     <row r="24" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="48">
         <v>5902</v>
       </c>
-      <c r="C24" s="52">
+      <c r="C24" s="48">
         <v>5667</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="48">
         <v>235</v>
       </c>
-      <c r="E24" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="29"/>
+      <c r="E24" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="43"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
@@ -2047,14 +2103,14 @@
       <c r="U24" s="29"/>
     </row>
     <row r="25" spans="1:69" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54">
+      <c r="A25" s="51">
         <v>2013</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
@@ -2120,22 +2176,22 @@
       <c r="BQ25" s="34"/>
     </row>
     <row r="26" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="43">
         <v>24659</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="43">
         <v>23200</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="43">
         <v>1447</v>
       </c>
-      <c r="E26" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="57">
+      <c r="E26" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="43">
         <v>12</v>
       </c>
       <c r="G26" s="29"/>
@@ -2155,22 +2211,22 @@
       <c r="U26" s="29"/>
     </row>
     <row r="27" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="45">
         <v>13641</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="45">
         <v>12916</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="45">
         <v>713</v>
       </c>
-      <c r="E27" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="49">
+      <c r="E27" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="45">
         <v>12</v>
       </c>
       <c r="G27" s="29"/>
@@ -2190,22 +2246,22 @@
       <c r="U27" s="29"/>
     </row>
     <row r="28" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="49">
+      <c r="B28" s="45">
         <v>11018</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="45">
         <v>10284</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="45">
         <v>734</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="49" t="s">
+      <c r="E28" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G28" s="29"/>
@@ -2225,22 +2281,22 @@
       <c r="U28" s="29"/>
     </row>
     <row r="29" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="49">
+      <c r="B29" s="45">
         <v>76</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="45">
         <v>76</v>
       </c>
-      <c r="D29" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="49" t="s">
+      <c r="D29" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G29" s="29"/>
@@ -2260,22 +2316,22 @@
       <c r="U29" s="29"/>
     </row>
     <row r="30" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="45">
         <v>6235</v>
       </c>
-      <c r="C30" s="49">
+      <c r="C30" s="45">
         <v>6235</v>
       </c>
-      <c r="D30" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="49" t="s">
+      <c r="D30" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="29"/>
@@ -2295,22 +2351,22 @@
       <c r="U30" s="29"/>
     </row>
     <row r="31" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="48">
         <v>4707</v>
       </c>
-      <c r="C31" s="52">
+      <c r="C31" s="48">
         <v>3973</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="48">
         <v>734</v>
       </c>
-      <c r="E31" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="52" t="s">
+      <c r="E31" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="29"/>
@@ -2330,14 +2386,14 @@
       <c r="U31" s="29"/>
     </row>
     <row r="32" spans="1:69" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54">
+      <c r="A32" s="51">
         <v>2014</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
@@ -2403,22 +2459,22 @@
       <c r="BQ32" s="34"/>
     </row>
     <row r="33" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="43">
         <v>20534</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="43">
         <v>19744</v>
       </c>
-      <c r="D33" s="57">
+      <c r="D33" s="43">
         <v>780</v>
       </c>
-      <c r="E33" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="57">
+      <c r="E33" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="43">
         <v>10</v>
       </c>
       <c r="G33" s="29"/>
@@ -2438,22 +2494,22 @@
       <c r="U33" s="29"/>
     </row>
     <row r="34" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="49">
+      <c r="B34" s="45">
         <v>9504</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="45">
         <v>8830</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="45">
         <v>664</v>
       </c>
-      <c r="E34" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="49">
+      <c r="E34" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="45">
         <v>10</v>
       </c>
       <c r="G34" s="29"/>
@@ -2473,22 +2529,22 @@
       <c r="U34" s="29"/>
     </row>
     <row r="35" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="49">
+      <c r="B35" s="45">
         <v>11030</v>
       </c>
-      <c r="C35" s="49">
+      <c r="C35" s="45">
         <v>10914</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="45">
         <v>116</v>
       </c>
-      <c r="E35" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="49" t="s">
+      <c r="E35" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G35" s="29"/>
@@ -2508,22 +2564,22 @@
       <c r="U35" s="29"/>
     </row>
     <row r="36" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="49">
+      <c r="B36" s="45">
         <v>215</v>
       </c>
-      <c r="C36" s="49">
+      <c r="C36" s="45">
         <v>215</v>
       </c>
-      <c r="D36" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="49" t="s">
+      <c r="D36" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="29"/>
@@ -2543,22 +2599,22 @@
       <c r="U36" s="29"/>
     </row>
     <row r="37" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="49">
+      <c r="B37" s="45">
         <v>2054</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="45">
         <v>2054</v>
       </c>
-      <c r="D37" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="49" t="s">
+      <c r="D37" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G37" s="29"/>
@@ -2578,22 +2634,22 @@
       <c r="U37" s="29"/>
     </row>
     <row r="38" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="52">
+      <c r="B38" s="48">
         <v>8761</v>
       </c>
-      <c r="C38" s="52">
+      <c r="C38" s="48">
         <v>8645</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="48">
         <v>116</v>
       </c>
-      <c r="E38" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="52" t="s">
+      <c r="E38" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="29"/>
@@ -2613,14 +2669,14 @@
       <c r="U38" s="29"/>
     </row>
     <row r="39" spans="1:69" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="54">
+      <c r="A39" s="51">
         <v>2015</v>
       </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="32"/>
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
@@ -2686,22 +2742,22 @@
       <c r="BQ39" s="34"/>
     </row>
     <row r="40" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="57">
+      <c r="B40" s="43">
         <v>22587</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="43">
         <v>22126</v>
       </c>
-      <c r="D40" s="57">
+      <c r="D40" s="43">
         <v>461</v>
       </c>
-      <c r="E40" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="58" t="s">
+      <c r="E40" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G40" s="29"/>
@@ -2721,22 +2777,22 @@
       <c r="U40" s="29"/>
     </row>
     <row r="41" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="49">
+      <c r="B41" s="45">
         <v>10615</v>
       </c>
-      <c r="C41" s="49">
+      <c r="C41" s="45">
         <v>10239</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="45">
         <v>376</v>
       </c>
-      <c r="E41" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="49" t="s">
+      <c r="E41" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="29"/>
@@ -2756,22 +2812,22 @@
       <c r="U41" s="29"/>
     </row>
     <row r="42" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="49">
+      <c r="B42" s="45">
         <v>11972</v>
       </c>
-      <c r="C42" s="49">
+      <c r="C42" s="45">
         <v>11887</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="45">
         <v>85</v>
       </c>
-      <c r="E42" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="49" t="s">
+      <c r="E42" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G42" s="29"/>
@@ -2791,22 +2847,22 @@
       <c r="U42" s="29"/>
     </row>
     <row r="43" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="45">
         <v>1072</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="45">
         <v>1072</v>
       </c>
-      <c r="D43" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="49" t="s">
+      <c r="D43" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="29"/>
@@ -2826,22 +2882,22 @@
       <c r="U43" s="29"/>
     </row>
     <row r="44" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="49">
+      <c r="B44" s="45">
         <v>5830</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="45">
         <v>5830</v>
       </c>
-      <c r="D44" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="49" t="s">
+      <c r="D44" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="29"/>
@@ -2861,22 +2917,22 @@
       <c r="U44" s="29"/>
     </row>
     <row r="45" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="52">
+      <c r="B45" s="48">
         <v>5070</v>
       </c>
-      <c r="C45" s="52">
+      <c r="C45" s="48">
         <v>4985</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="48">
         <v>85</v>
       </c>
-      <c r="E45" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="52" t="s">
+      <c r="E45" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="29"/>
@@ -2896,14 +2952,14 @@
       <c r="U45" s="29"/>
     </row>
     <row r="46" spans="1:69" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="54">
+      <c r="A46" s="51">
         <v>2016</v>
       </c>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
@@ -2969,22 +3025,22 @@
       <c r="BQ46" s="34"/>
     </row>
     <row r="47" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="57">
+      <c r="B47" s="43">
         <v>23704</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="43">
         <v>23137</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="43">
         <v>567</v>
       </c>
-      <c r="E47" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="58" t="s">
+      <c r="E47" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="29"/>
@@ -3004,22 +3060,22 @@
       <c r="U47" s="29"/>
     </row>
     <row r="48" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="49">
+      <c r="B48" s="45">
         <v>10630</v>
       </c>
-      <c r="C48" s="49">
+      <c r="C48" s="45">
         <v>10208</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="45">
         <v>422</v>
       </c>
-      <c r="E48" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="49" t="s">
+      <c r="E48" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G48" s="29"/>
@@ -3039,22 +3095,22 @@
       <c r="U48" s="29"/>
     </row>
     <row r="49" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="45">
         <v>13074</v>
       </c>
-      <c r="C49" s="49">
+      <c r="C49" s="45">
         <v>12929</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="45">
         <v>145</v>
       </c>
-      <c r="E49" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="49" t="s">
+      <c r="E49" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="29"/>
@@ -3074,22 +3130,22 @@
       <c r="U49" s="29"/>
     </row>
     <row r="50" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="49">
+      <c r="B50" s="45">
         <v>244</v>
       </c>
-      <c r="C50" s="49">
+      <c r="C50" s="45">
         <v>244</v>
       </c>
-      <c r="D50" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="49" t="s">
+      <c r="D50" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G50" s="29"/>
@@ -3109,22 +3165,22 @@
       <c r="U50" s="29"/>
     </row>
     <row r="51" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="49">
+      <c r="B51" s="45">
         <v>8530</v>
       </c>
-      <c r="C51" s="49">
+      <c r="C51" s="45">
         <v>8465</v>
       </c>
-      <c r="D51" s="49">
+      <c r="D51" s="45">
         <v>65</v>
       </c>
-      <c r="E51" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="49" t="s">
+      <c r="E51" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="29"/>
@@ -3144,22 +3200,22 @@
       <c r="U51" s="29"/>
     </row>
     <row r="52" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="52">
+      <c r="B52" s="48">
         <v>4300</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C52" s="48">
         <v>4220</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="48">
         <v>80</v>
       </c>
-      <c r="E52" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="52" t="s">
+      <c r="E52" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="29"/>
@@ -3179,14 +3235,14 @@
       <c r="U52" s="29"/>
     </row>
     <row r="53" spans="1:69" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="54">
+      <c r="A53" s="51">
         <v>2017</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
       <c r="G53" s="32"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
@@ -3252,22 +3308,22 @@
       <c r="BQ53" s="34"/>
     </row>
     <row r="54" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="57">
+      <c r="B54" s="43">
         <v>57932</v>
       </c>
-      <c r="C54" s="57">
+      <c r="C54" s="43">
         <v>57253</v>
       </c>
-      <c r="D54" s="57">
+      <c r="D54" s="43">
         <v>629</v>
       </c>
-      <c r="E54" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="57">
+      <c r="E54" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="43">
         <v>50</v>
       </c>
       <c r="G54" s="29"/>
@@ -3287,22 +3343,22 @@
       <c r="U54" s="29"/>
     </row>
     <row r="55" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="49">
+      <c r="B55" s="45">
         <v>33835</v>
       </c>
-      <c r="C55" s="49">
+      <c r="C55" s="45">
         <v>33406</v>
       </c>
-      <c r="D55" s="49">
+      <c r="D55" s="45">
         <v>379</v>
       </c>
-      <c r="E55" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" s="49">
+      <c r="E55" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="45">
         <v>50</v>
       </c>
       <c r="G55" s="29"/>
@@ -3322,22 +3378,22 @@
       <c r="U55" s="29"/>
     </row>
     <row r="56" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="49">
+      <c r="B56" s="45">
         <v>24097</v>
       </c>
-      <c r="C56" s="49">
+      <c r="C56" s="45">
         <v>23847</v>
       </c>
-      <c r="D56" s="49">
+      <c r="D56" s="45">
         <v>250</v>
       </c>
-      <c r="E56" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="47" t="s">
+      <c r="E56" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="29"/>
@@ -3357,22 +3413,22 @@
       <c r="U56" s="29"/>
     </row>
     <row r="57" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="49">
+      <c r="B57" s="45">
         <v>1144</v>
       </c>
-      <c r="C57" s="49">
+      <c r="C57" s="45">
         <v>1144</v>
       </c>
-      <c r="D57" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="47" t="s">
+      <c r="D57" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="29"/>
@@ -3392,22 +3448,22 @@
       <c r="U57" s="29"/>
     </row>
     <row r="58" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="50" t="s">
+      <c r="A58" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="49">
+      <c r="B58" s="45">
         <v>15385</v>
       </c>
-      <c r="C58" s="49">
+      <c r="C58" s="45">
         <v>15135</v>
       </c>
-      <c r="D58" s="49">
+      <c r="D58" s="45">
         <v>250</v>
       </c>
-      <c r="E58" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="47" t="s">
+      <c r="E58" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G58" s="29"/>
@@ -3427,22 +3483,22 @@
       <c r="U58" s="29"/>
     </row>
     <row r="59" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="52">
+      <c r="B59" s="48">
         <v>7568</v>
       </c>
-      <c r="C59" s="52">
+      <c r="C59" s="48">
         <v>7568</v>
       </c>
-      <c r="D59" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="53" t="s">
+      <c r="D59" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="29"/>
@@ -3462,14 +3518,14 @@
       <c r="U59" s="29"/>
     </row>
     <row r="60" spans="1:69" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="54">
+      <c r="A60" s="51">
         <v>2018</v>
       </c>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
       <c r="G60" s="32"/>
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
@@ -3535,22 +3591,22 @@
       <c r="BQ60" s="34"/>
     </row>
     <row r="61" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="57">
+      <c r="B61" s="43">
         <v>59984</v>
       </c>
-      <c r="C61" s="57">
+      <c r="C61" s="43">
         <v>56159</v>
       </c>
-      <c r="D61" s="57">
+      <c r="D61" s="43">
         <v>3825</v>
       </c>
-      <c r="E61" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="57" t="s">
+      <c r="E61" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G61" s="29"/>
@@ -3570,22 +3626,22 @@
       <c r="U61" s="29"/>
     </row>
     <row r="62" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="49">
+      <c r="B62" s="45">
         <v>30293</v>
       </c>
-      <c r="C62" s="49">
+      <c r="C62" s="45">
         <v>28868</v>
       </c>
-      <c r="D62" s="49">
+      <c r="D62" s="45">
         <v>1425</v>
       </c>
-      <c r="E62" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="47" t="s">
+      <c r="E62" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G62" s="29"/>
@@ -3605,22 +3661,22 @@
       <c r="U62" s="29"/>
     </row>
     <row r="63" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="49">
+      <c r="B63" s="45">
         <v>29691</v>
       </c>
-      <c r="C63" s="49">
+      <c r="C63" s="45">
         <v>27291</v>
       </c>
-      <c r="D63" s="49">
+      <c r="D63" s="45">
         <v>2400</v>
       </c>
-      <c r="E63" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="47" t="s">
+      <c r="E63" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G63" s="29"/>
@@ -3640,22 +3696,22 @@
       <c r="U63" s="29"/>
     </row>
     <row r="64" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="49">
+      <c r="B64" s="45">
         <v>4157</v>
       </c>
-      <c r="C64" s="49">
+      <c r="C64" s="45">
         <v>4157</v>
       </c>
-      <c r="D64" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="47" t="s">
+      <c r="D64" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G64" s="29"/>
@@ -3675,22 +3731,22 @@
       <c r="U64" s="29"/>
     </row>
     <row r="65" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="50" t="s">
+      <c r="A65" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="49">
+      <c r="B65" s="45">
         <v>19843</v>
       </c>
-      <c r="C65" s="49">
+      <c r="C65" s="45">
         <v>17843</v>
       </c>
-      <c r="D65" s="49">
+      <c r="D65" s="45">
         <v>2000</v>
       </c>
-      <c r="E65" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="47" t="s">
+      <c r="E65" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G65" s="29"/>
@@ -3710,22 +3766,22 @@
       <c r="U65" s="29"/>
     </row>
     <row r="66" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="52">
+      <c r="B66" s="48">
         <v>5691</v>
       </c>
-      <c r="C66" s="52">
+      <c r="C66" s="48">
         <v>5291</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="48">
         <v>400</v>
       </c>
-      <c r="E66" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="53" t="s">
+      <c r="E66" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="29"/>
@@ -3745,14 +3801,14 @@
       <c r="U66" s="29"/>
     </row>
     <row r="67" spans="1:69" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="54">
+      <c r="A67" s="51">
         <v>2019</v>
       </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
       <c r="G67" s="32"/>
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
@@ -3818,22 +3874,22 @@
       <c r="BQ67" s="34"/>
     </row>
     <row r="68" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="57">
+      <c r="B68" s="43">
         <v>20376</v>
       </c>
-      <c r="C68" s="57">
+      <c r="C68" s="43">
         <v>20169</v>
       </c>
-      <c r="D68" s="57">
+      <c r="D68" s="43">
         <v>207</v>
       </c>
-      <c r="E68" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="57" t="s">
+      <c r="E68" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="29"/>
@@ -3853,22 +3909,22 @@
       <c r="U68" s="29"/>
     </row>
     <row r="69" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="49">
+      <c r="B69" s="45">
         <v>7802</v>
       </c>
-      <c r="C69" s="49">
+      <c r="C69" s="45">
         <v>7595</v>
       </c>
-      <c r="D69" s="49">
+      <c r="D69" s="45">
         <v>207</v>
       </c>
-      <c r="E69" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="47" t="s">
+      <c r="E69" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G69" s="29"/>
@@ -3888,22 +3944,22 @@
       <c r="U69" s="29"/>
     </row>
     <row r="70" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="49">
+      <c r="B70" s="45">
         <v>12574</v>
       </c>
-      <c r="C70" s="49">
+      <c r="C70" s="45">
         <v>12574</v>
       </c>
-      <c r="D70" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="47" t="s">
+      <c r="D70" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="29"/>
@@ -3923,22 +3979,22 @@
       <c r="U70" s="29"/>
     </row>
     <row r="71" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="49">
+      <c r="B71" s="45">
         <v>428</v>
       </c>
-      <c r="C71" s="49">
+      <c r="C71" s="45">
         <v>428</v>
       </c>
-      <c r="D71" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="47" t="s">
+      <c r="D71" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G71" s="29"/>
@@ -3958,22 +4014,22 @@
       <c r="U71" s="29"/>
     </row>
     <row r="72" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="50" t="s">
+      <c r="A72" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="49">
+      <c r="B72" s="45">
         <v>9595</v>
       </c>
-      <c r="C72" s="49">
+      <c r="C72" s="45">
         <v>9595</v>
       </c>
-      <c r="D72" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="47" t="s">
+      <c r="D72" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="29"/>
@@ -3993,22 +4049,22 @@
       <c r="U72" s="29"/>
     </row>
     <row r="73" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="51" t="s">
+      <c r="A73" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="52">
+      <c r="B73" s="48">
         <v>2551</v>
       </c>
-      <c r="C73" s="52">
+      <c r="C73" s="48">
         <v>2551</v>
       </c>
-      <c r="D73" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="53" t="s">
+      <c r="D73" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="29"/>
@@ -4028,14 +4084,14 @@
       <c r="U73" s="29"/>
     </row>
     <row r="74" spans="1:69" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="54">
+      <c r="A74" s="51">
         <v>2020</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
       <c r="G74" s="32"/>
       <c r="H74" s="32"/>
       <c r="I74" s="32"/>
@@ -4101,22 +4157,22 @@
       <c r="BQ74" s="34"/>
     </row>
     <row r="75" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="57">
+      <c r="B75" s="43">
         <v>5094</v>
       </c>
-      <c r="C75" s="57">
+      <c r="C75" s="43">
         <v>4534</v>
       </c>
-      <c r="D75" s="57">
+      <c r="D75" s="43">
         <v>45</v>
       </c>
-      <c r="E75" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="57">
+      <c r="E75" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="43">
         <v>515</v>
       </c>
       <c r="G75" s="29"/>
@@ -4136,22 +4192,22 @@
       <c r="U75" s="29"/>
     </row>
     <row r="76" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="49">
+      <c r="B76" s="45">
         <v>5042</v>
       </c>
-      <c r="C76" s="49">
+      <c r="C76" s="45">
         <v>4482</v>
       </c>
-      <c r="D76" s="49">
+      <c r="D76" s="45">
         <v>45</v>
       </c>
-      <c r="E76" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F76" s="49">
+      <c r="E76" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="45">
         <v>515</v>
       </c>
       <c r="G76" s="29"/>
@@ -4171,22 +4227,22 @@
       <c r="U76" s="29"/>
     </row>
     <row r="77" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="49">
+      <c r="B77" s="45">
         <v>52</v>
       </c>
-      <c r="C77" s="49">
+      <c r="C77" s="45">
         <v>52</v>
       </c>
-      <c r="D77" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="49" t="s">
+      <c r="D77" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="45" t="s">
         <v>8</v>
       </c>
       <c r="G77" s="29"/>
@@ -4206,22 +4262,22 @@
       <c r="U77" s="29"/>
     </row>
     <row r="78" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="49">
+      <c r="B78" s="45">
         <v>7</v>
       </c>
-      <c r="C78" s="49">
+      <c r="C78" s="45">
         <v>7</v>
       </c>
-      <c r="D78" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="49" t="s">
+      <c r="D78" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="45" t="s">
         <v>8</v>
       </c>
       <c r="G78" s="29"/>
@@ -4241,22 +4297,22 @@
       <c r="U78" s="29"/>
     </row>
     <row r="79" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="49">
+      <c r="B79" s="45">
         <v>45</v>
       </c>
-      <c r="C79" s="49">
+      <c r="C79" s="45">
         <v>45</v>
       </c>
-      <c r="D79" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="49" t="s">
+      <c r="D79" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="45" t="s">
         <v>8</v>
       </c>
       <c r="G79" s="29"/>
@@ -4276,22 +4332,22 @@
       <c r="U79" s="29"/>
     </row>
     <row r="80" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="51" t="s">
+      <c r="A80" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="52" t="s">
+      <c r="B80" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="48" t="s">
         <v>8</v>
       </c>
       <c r="G80" s="29"/>
@@ -4311,14 +4367,14 @@
       <c r="U80" s="29"/>
     </row>
     <row r="81" spans="1:69" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="54">
+      <c r="A81" s="51">
         <v>2021</v>
       </c>
-      <c r="B81" s="56"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
       <c r="G81" s="32"/>
       <c r="H81" s="32"/>
       <c r="I81" s="32"/>
@@ -4384,22 +4440,22 @@
       <c r="BQ81" s="34"/>
     </row>
     <row r="82" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="46" t="s">
+      <c r="A82" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="57">
+      <c r="B82" s="49">
         <v>7124</v>
       </c>
-      <c r="C82" s="57">
+      <c r="C82" s="49">
         <v>6421</v>
       </c>
-      <c r="D82" s="57">
+      <c r="D82" s="49">
         <v>348</v>
       </c>
-      <c r="E82" s="57">
+      <c r="E82" s="49">
         <v>155</v>
       </c>
-      <c r="F82" s="57">
+      <c r="F82" s="49">
         <v>200</v>
       </c>
       <c r="G82" s="29"/>
@@ -4419,22 +4475,22 @@
       <c r="U82" s="29"/>
     </row>
     <row r="83" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="48" t="s">
+      <c r="A83" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="49">
+      <c r="B83" s="45">
         <v>6142</v>
       </c>
-      <c r="C83" s="49">
+      <c r="C83" s="45">
         <v>5484</v>
       </c>
-      <c r="D83" s="49">
+      <c r="D83" s="45">
         <v>348</v>
       </c>
-      <c r="E83" s="49">
+      <c r="E83" s="45">
         <v>110</v>
       </c>
-      <c r="F83" s="49">
+      <c r="F83" s="45">
         <v>200</v>
       </c>
       <c r="G83" s="29"/>
@@ -4454,22 +4510,22 @@
       <c r="U83" s="29"/>
     </row>
     <row r="84" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="49">
+      <c r="B84" s="45">
         <v>982</v>
       </c>
-      <c r="C84" s="49">
+      <c r="C84" s="45">
         <v>937</v>
       </c>
-      <c r="D84" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" s="49">
+      <c r="D84" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="45">
         <v>45</v>
       </c>
-      <c r="F84" s="47" t="s">
+      <c r="F84" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G84" s="29"/>
@@ -4489,22 +4545,22 @@
       <c r="U84" s="29"/>
     </row>
     <row r="85" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="49">
+      <c r="B85" s="45">
         <v>1</v>
       </c>
-      <c r="C85" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="49">
+      <c r="C85" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="45">
         <v>1</v>
       </c>
-      <c r="F85" s="47" t="s">
+      <c r="F85" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G85" s="29"/>
@@ -4524,22 +4580,22 @@
       <c r="U85" s="29"/>
     </row>
     <row r="86" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="50" t="s">
+      <c r="A86" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="49">
+      <c r="B86" s="45">
         <v>767</v>
       </c>
-      <c r="C86" s="49">
+      <c r="C86" s="45">
         <v>765</v>
       </c>
-      <c r="D86" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="49">
+      <c r="D86" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="45">
         <v>2</v>
       </c>
-      <c r="F86" s="47" t="s">
+      <c r="F86" s="43" t="s">
         <v>8</v>
       </c>
       <c r="G86" s="29"/>
@@ -4559,22 +4615,22 @@
       <c r="U86" s="29"/>
     </row>
     <row r="87" spans="1:69" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="52">
+      <c r="B87" s="48">
         <v>214</v>
       </c>
-      <c r="C87" s="52">
+      <c r="C87" s="48">
         <v>172</v>
       </c>
-      <c r="D87" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="52">
+      <c r="D87" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="48">
         <v>42</v>
       </c>
-      <c r="F87" s="53" t="s">
+      <c r="F87" s="50" t="s">
         <v>8</v>
       </c>
       <c r="G87" s="29"/>
@@ -4593,13 +4649,15 @@
       <c r="T87" s="29"/>
       <c r="U87" s="29"/>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A88" s="36"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
+    <row r="88" spans="1:69" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
@@ -6434,7 +6492,23 @@
       <c r="U167" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
@@ -6444,21 +6518,6 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
